--- a/Inference_3_pipeline/100_samples.xlsx
+++ b/Inference_3_pipeline/100_samples.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -332,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -343,6 +343,16 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -357,13 +367,17 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF0F1419"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -386,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -394,23 +408,28 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -637,1279 +656,1266 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8.0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11.0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12.0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13.0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14.0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15.0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16.0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17.0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18.0</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19.0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20.0</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22.0</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29.0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30.0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31.0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34.0</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35.0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36.0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37.0</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38.0</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39.0</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40.0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41.0</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42.0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43.0</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44.0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45.0</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46.0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47.0</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48.0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49.0</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50.0</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>51.0</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>52.0</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>53.0</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>54.0</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>55.0</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="8" t="str">
-        <f>IF(COUNTA(#REF!)&lt;2,"Pending",
- IF(MAX(COUNTIF(#REF!,0),COUNTIF(#REF!,1),COUNTIF(#REF!,2))=1,"No consensus",
- IF(COUNTIF(#REF!,0)&gt;=2,0,IF(COUNTIF(#REF!,1)&gt;=2,1,2))))</f>
-        <v>Pending</v>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>56.0</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>57.0</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>58.0</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="8" t="str">
-        <f>IF(COUNTA(#REF!)&lt;2,"Pending",
- IF(MAX(COUNTIF(#REF!,0),COUNTIF(#REF!,1),COUNTIF(#REF!,2))=1,"No consensus",
- IF(COUNTIF(#REF!,0)&gt;=2,0,IF(COUNTIF(#REF!,1)&gt;=2,1,2))))</f>
-        <v>Pending</v>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>59.0</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>60.0</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="8" t="str">
-        <f>IF(COUNTA(#REF!)&lt;2,"Pending",
- IF(MAX(COUNTIF(#REF!,0),COUNTIF(#REF!,1),COUNTIF(#REF!,2))=1,"No consensus",
- IF(COUNTIF(#REF!,0)&gt;=2,0,IF(COUNTIF(#REF!,1)&gt;=2,1,2))))</f>
-        <v>Pending</v>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>61.0</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>62.0</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>63.0</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="8" t="str">
-        <f t="shared" ref="C64:C65" si="1">IF(COUNTA(#REF!)&lt;2,"Pending",
- IF(MAX(COUNTIF(#REF!,0),COUNTIF(#REF!,1),COUNTIF(#REF!,2))=1,"No consensus",
- IF(COUNTIF(#REF!,0)&gt;=2,0,IF(COUNTIF(#REF!,1)&gt;=2,1,2))))</f>
-        <v>Pending</v>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>64.0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>65.0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>66.0</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>67.0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>68.0</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>69.0</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>70.0</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>71.0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>72.0</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>73.0</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>74.0</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>75.0</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>76.0</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>77.0</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>78.0</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>79.0</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>80.0</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>81.0</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>82.0</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>83.0</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>84.0</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>85.0</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>86.0</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>87.0</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>88.0</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>89.0</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>90.0</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>91.0</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>92.0</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>93.0</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>94.0</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>95.0</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>96.0</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>97.0</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>98.0</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>99.0</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>4</v>
       </c>
     </row>
